--- a/finalGraphs.xlsx
+++ b/finalGraphs.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\OneDrive\University\2018-2019\Final year project\Project\HomeHelpService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="8_{27F69EC8-5F11-4440-AE34-4F2AF043D763}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9E2B8245-879F-42D0-8F3C-F84CAB0950AE}"/>
+  <xr:revisionPtr revIDLastSave="574" documentId="8_{27F69EC8-5F11-4440-AE34-4F2AF043D763}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{91B6913C-AFEA-4343-AB7B-5CCC4A33D347}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1590" windowWidth="11925" windowHeight="11655" firstSheet="1" activeTab="2" xr2:uid="{6C79C83B-B514-4561-9763-B68BA88D0559}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11925" windowHeight="11655" xr2:uid="{6C79C83B-B514-4561-9763-B68BA88D0559}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs_upTo 10" sheetId="1" r:id="rId1"/>
     <sheet name="Graphs_10-15" sheetId="2" r:id="rId2"/>
     <sheet name="Graphs_E1-5_P1-20" sheetId="3" r:id="rId3"/>
+    <sheet name="1,2,n-1,n" sheetId="4" r:id="rId4"/>
+    <sheet name="success Vs fail" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>EMPLOYEE NO.</t>
   </si>
@@ -52,12 +54,42 @@
   <si>
     <t>MAX TIME (s)</t>
   </si>
+  <si>
+    <t>SUCCESS %</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>SUCCESS (%)</t>
+  </si>
+  <si>
+    <t>20 clients</t>
+  </si>
+  <si>
+    <t>10 clients</t>
+  </si>
+  <si>
+    <t>SUCCESSFUL TIME</t>
+  </si>
+  <si>
+    <t>SUCEESSFUL NO</t>
+  </si>
+  <si>
+    <t>UNSUCCESSFUL TIME (s)</t>
+  </si>
+  <si>
+    <t>UNSUCCESSFUL NO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +118,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -121,14 +159,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
@@ -260,7 +311,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.11771306610107417</c:v>
+                  <c:v>0.117713066101074</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1773760027885436</c:v>
@@ -820,7 +871,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.11771306610107417</c:v>
+                  <c:v>0.117713066101074</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1773760027885436</c:v>
@@ -1374,7 +1425,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.11771306610107417</c:v>
+                  <c:v>0.117713066101074</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1773760027885436</c:v>
@@ -1731,6 +1782,3030 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>RANDOM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> CLIENTS UP TO 10 BASED ON AVERAGE TIME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.425E-2"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SEPERATED</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphs_upTo 10'!$D$18:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-486C-447B-9245-FEC8F78EEF83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MERGED</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphs_upTo 10'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-486C-447B-9245-FEC8F78EEF83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="516581656"/>
+        <c:axId val="647050952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="516581656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>NO.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> OF  EMPLOYEES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647050952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647050952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>SUCCESS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516581656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLOSE UP OF MERGED TIMINGS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MERGED</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphs_upTo 10'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.117713066101074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1773760027885436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15959639883041374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16944633722305291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36457485580444282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48871684217452982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2816229209899865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.947077514648434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20959035873413076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20670619344711297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FC8-4D30-9882-1235C5285F33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="516581656"/>
+        <c:axId val="647050952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="516581656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>NO.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> OF  EMPLOYEES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647050952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647050952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516581656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>AVERAGE TIME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graphs_E1-5_P1-20'!$A$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphs_E1-5_P1-20'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8878953922754023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5440109372138782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5890787737710127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0358021476052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7736569478971114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.07091473278245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-902F-4F32-99D9-68B49E2A3C53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graphs_E1-5_P1-20'!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphs_E1-5_P1-20'!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.117713066101074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1773760027885436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15959639883041374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16944633722305291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36457485580444282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48871684217452982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-902F-4F32-99D9-68B49E2A3C53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="673720376"/>
+        <c:axId val="673719720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="673720376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673719720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="673719720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673720376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>SUCCESS RATE</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graphs_E1-5_P1-20'!$A$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphs_E1-5_P1-20'!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.565656565656568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.036697247706421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.578947368421051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE05-43C2-886F-8F92292BF629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graphs_E1-5_P1-20'!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphs_E1-5_P1-20'!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE05-43C2-886F-8F92292BF629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="751740952"/>
+        <c:axId val="751741936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="751740952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751741936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="751741936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Success %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751740952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> time </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>9 Employees</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1,2,n-1,n'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25025756025314322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39352751302719091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20305845546722406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23318606710433953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9242-4CE1-B0A9-AAED4BD0EF30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10 Employees</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1,2,n-1,n'!$A$10:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1,2,n-1,n'!$C$6:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.117713066101074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1773760027885436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20959035873413076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20670619344711297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9242-4CE1-B0A9-AAED4BD0EF30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>11 Employees</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1,2,n-1,n'!$A$10:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1,2,n-1,n'!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.15734372043609612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16456502246856677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15060955190658562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15433288764953604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9242-4CE1-B0A9-AAED4BD0EF30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>12 Employees</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1,2,n-1,n'!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.46285153484344466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4374111413955677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22659077692031854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25923386859893788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9242-4CE1-B0A9-AAED4BD0EF30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="664722776"/>
+        <c:axId val="664719824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="664722776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="664719824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="664719824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664722776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>SUCCESSFUL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs UNSUCCESSFUL AVERAGE TIME</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13815048118985127"/>
+          <c:y val="0.125"/>
+          <c:w val="0.6111535433070866"/>
+          <c:h val="0.66016987459900833"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'success Vs fail'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SUCCESSFUL TIME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'success Vs fail'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'success Vs fail'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11771306610107417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1773760027885436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13886637157864032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11913403151507039</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11375276114092479</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11108085036277764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13319390074590612</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12749104599388453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20959035873413076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20670619344711297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E55F-4B6B-A91B-BBDCCEA525C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'success Vs fail'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UNSUCCESSFUL TIME (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'success Vs fail'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>0.3916715819661204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31878603829277857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99075309213224649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9992608094215378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.065239109926742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.776668355084823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E55F-4B6B-A91B-BBDCCEA525C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="580489936"/>
+        <c:axId val="580490264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="580489936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>EMPLOYEE NO.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580490264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="580490264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580489936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75208180227471566"/>
+          <c:y val="0.40798556430446192"/>
+          <c:w val="0.2340293088363955"/>
+          <c:h val="0.25810294546515017"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -1848,6 +4923,243 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2881,6 +6193,3102 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3507,6 +9915,241 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9C0F17-5C5B-45F7-8F11-ADEAD92493DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B289F5-6AA5-4979-AE73-E0F256B2599E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54679C24-AA7E-4022-B5CE-40047149B3CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF75565-D3E0-4EE8-B198-012D9CE5DA5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26AEE5AE-F5A2-4423-ADDD-50612699E776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3080325D-1D02-4CF6-8CCB-EA27057DEDD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3812,10 +10455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D018F7-A491-4197-97D0-100261BA1D83}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,16 +10466,18 @@
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3842,19 +10487,25 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.11771306610107417</v>
+        <v>0.117713066101074</v>
       </c>
       <c r="C3" s="2">
         <v>0.77291464805603005</v>
       </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3864,19 +10515,25 @@
       <c r="C4" s="2">
         <v>2.4726915359496999</v>
       </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.15959639883041374</v>
       </c>
       <c r="C5" s="2">
         <v>1.1841804981231601</v>
       </c>
+      <c r="D5" s="2">
+        <v>91.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3886,8 +10543,11 @@
       <c r="C6" s="2">
         <v>0.92184305191039995</v>
       </c>
+      <c r="D6" s="2">
+        <v>74.8</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3897,8 +10557,11 @@
       <c r="C7" s="2">
         <v>2.6130688190460201</v>
       </c>
+      <c r="D7" s="2">
+        <v>71.400000000000006</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3908,8 +10571,11 @@
       <c r="C8" s="2">
         <v>5.1795248985290501</v>
       </c>
+      <c r="D8" s="2">
+        <v>80</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3919,8 +10585,11 @@
       <c r="C9" s="2">
         <v>32.578436851501401</v>
       </c>
+      <c r="D9" s="2">
+        <v>71.2</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3930,8 +10599,11 @@
       <c r="C10" s="2">
         <v>146.81203889846799</v>
       </c>
+      <c r="D10" s="2">
+        <v>86.2</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3941,8 +10613,11 @@
       <c r="C11" s="2">
         <v>1.2178092002868599</v>
       </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3952,15 +10627,19 @@
       <c r="C12" s="2">
         <v>1.22580742835998</v>
       </c>
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -3970,8 +10649,11 @@
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -3981,8 +10663,11 @@
       <c r="C18" s="2">
         <v>1.11558365821838</v>
       </c>
+      <c r="D18" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -3992,8 +10677,11 @@
       <c r="C19" s="2">
         <v>2.4675948619842498</v>
       </c>
+      <c r="D19" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -4003,8 +10691,11 @@
       <c r="C20" s="2">
         <v>3.8779277801513601</v>
       </c>
+      <c r="D20" s="2">
+        <v>90.4</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -4014,8 +10705,11 @@
       <c r="C21" s="2">
         <v>2.3592963218688898</v>
       </c>
+      <c r="D21" s="2">
+        <v>74.8</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -4025,8 +10719,11 @@
       <c r="C22" s="2">
         <v>3.78203845024108</v>
       </c>
+      <c r="D22" s="2">
+        <v>84</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -4036,8 +10733,11 @@
       <c r="C23" s="2">
         <v>32.021397829055701</v>
       </c>
+      <c r="D23" s="2">
+        <v>80</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -4047,8 +10747,11 @@
       <c r="C24" s="2">
         <v>12.1350953578948</v>
       </c>
+      <c r="D24" s="2">
+        <v>69.8</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -4058,8 +10761,11 @@
       <c r="C25" s="2">
         <v>12727.898752212501</v>
       </c>
+      <c r="D25" s="2">
+        <v>80</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -4069,8 +10775,11 @@
       <c r="C26" s="2">
         <v>0.55094075202941895</v>
       </c>
+      <c r="D26" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>10</v>
       </c>
@@ -4080,11 +10789,23 @@
       <c r="C27" s="2">
         <v>0.59090614318847601</v>
       </c>
+      <c r="D27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="16:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P54" s="4"/>
+    </row>
+    <row r="55" spans="16:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P55" s="4"/>
+    </row>
+    <row r="56" spans="16:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P56" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4107,10 +10828,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4200,26 +10921,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BD9E3C-D23D-4A57-9093-609504E399C3}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4227,10 +10957,25 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4240,8 +10985,23 @@
       <c r="C3" s="2">
         <v>55.633858203887897</v>
       </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.117713066101074</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.77291464805603005</v>
+      </c>
+      <c r="J3" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4251,8 +11011,23 @@
       <c r="C4" s="2">
         <v>149.11958765983499</v>
       </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.1773760027885436</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.4726915359496999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4262,8 +11037,23 @@
       <c r="C5" s="2">
         <v>5.0822024345397896</v>
       </c>
+      <c r="D5" s="2">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.15959639883041374</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.1841804981231601</v>
+      </c>
+      <c r="J5" s="2">
+        <v>91.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4273,8 +11063,23 @@
       <c r="C6" s="2">
         <v>98.020564317703204</v>
       </c>
+      <c r="D6" s="2">
+        <v>56.565656565656568</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.16944633722305291</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.92184305191039995</v>
+      </c>
+      <c r="J6" s="2">
+        <v>74.8</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4284,36 +11089,570 @@
       <c r="C7" s="2">
         <v>27.317402601242001</v>
       </c>
+      <c r="D7" s="2">
+        <v>44.036697247706421</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.36457485580444282</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.6130688190460201</v>
+      </c>
+      <c r="J7" s="2">
+        <v>71.400000000000006</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>14.07091473278245</v>
+      </c>
+      <c r="C8" s="2">
+        <v>67.052122831344604</v>
+      </c>
+      <c r="D8" s="2">
+        <v>31.578947368421051</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.48871684217452982</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5.1795248985290501</v>
+      </c>
+      <c r="J8" s="2">
+        <v>80</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA21E65-FBF7-48F0-854E-59BCB33298C0}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.25025756025314322</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.1345086097717201</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.39352751302719091</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.2106528282165501</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.20305845546722406</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.2136521339416499</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.23318606710433953</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.0138416290283201</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.117713066101074</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.77291464805603005</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.1773760027885436</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.4726915359496999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.20959035873413076</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.2178092002868599</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.20670619344711297</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.22580742835998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.15734372043609612</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.04395079612731</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.16456502246856677</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.75072193145751</v>
+      </c>
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.15060955190658562</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.52891635894775302</v>
+      </c>
+      <c r="E12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.15433288764953604</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.3675072193145699</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.46285153484344466</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.2800128459930402</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.4374111413955677</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42.922843456268303</v>
+      </c>
+      <c r="E15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.22659077692031854</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.1268217563629099</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.25923386859893788</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.5707540512084901</v>
+      </c>
+      <c r="E17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C94E93-D0AF-449B-9BA5-198F3F20A043}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7">
+        <v>0.11771306610107417</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7">
+        <v>0.1773760027885436</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.3916715819661204</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.13886637157864032</v>
+      </c>
+      <c r="D5" s="7">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.31878603829277857</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.11913403151507039</v>
+      </c>
+      <c r="D6" s="7">
+        <v>126</v>
+      </c>
+      <c r="E6" s="7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.99075309213224649</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.11375276114092479</v>
+      </c>
+      <c r="D7" s="7">
+        <v>143</v>
+      </c>
+      <c r="E7" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.9992608094215378</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.11108085036277764</v>
+      </c>
+      <c r="D8" s="7">
+        <v>100</v>
+      </c>
+      <c r="E8" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>11.065239109926742</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.13319390074590612</v>
+      </c>
+      <c r="D9" s="7">
+        <v>144</v>
+      </c>
+      <c r="E9" s="7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>85.776668355084823</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.12749104599388453</v>
+      </c>
+      <c r="D10" s="7">
+        <v>69</v>
+      </c>
+      <c r="E10" s="7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7">
+        <v>0.20959035873413076</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7">
+        <v>0.20670619344711297</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/finalGraphs.xlsx
+++ b/finalGraphs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="574" documentId="8_{27F69EC8-5F11-4440-AE34-4F2AF043D763}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{91B6913C-AFEA-4343-AB7B-5CCC4A33D347}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11925" windowHeight="11655" xr2:uid="{6C79C83B-B514-4561-9763-B68BA88D0559}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{6C79C83B-B514-4561-9763-B68BA88D0559}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs_upTo 10" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -179,6 +176,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10457,7 +10457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D018F7-A491-4197-97D0-100261BA1D83}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
@@ -10470,12 +10470,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10632,12 +10632,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -10828,10 +10828,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10936,18 +10936,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11455,7 +11455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C94E93-D0AF-449B-9BA5-198F3F20A043}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
@@ -11469,13 +11469,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11495,156 +11495,156 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7">
+      <c r="B3" s="7"/>
+      <c r="C3" s="6">
         <v>0.11771306610107417</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7">
+      <c r="D3" s="7"/>
+      <c r="E3" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7">
+      <c r="B4" s="7"/>
+      <c r="C4" s="6">
         <v>0.1773760027885436</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7">
+      <c r="D4" s="7"/>
+      <c r="E4" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.3916715819661204</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.13886637157864032</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>41</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.31878603829277857</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.11913403151507039</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>126</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0.99075309213224649</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.11375276114092479</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>143</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1.9992608094215378</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.11108085036277764</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>100</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>11.065239109926742</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.13319390074590612</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>144</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>85.776668355084823</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>0.12749104599388453</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>69</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7">
+      <c r="B11" s="7"/>
+      <c r="C11" s="6">
         <v>0.20959035873413076</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7">
+      <c r="D11" s="7"/>
+      <c r="E11" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7">
+      <c r="B12" s="7"/>
+      <c r="C12" s="6">
         <v>0.20670619344711297</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7">
+      <c r="D12" s="7"/>
+      <c r="E12" s="6">
         <v>500</v>
       </c>
     </row>
